--- a/biology/Botanique/Old_Tjikko/Old_Tjikko.xlsx
+++ b/biology/Botanique/Old_Tjikko/Old_Tjikko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Old Tjikko (littéralement « vieux Tjikko ») est un Épicéa commun vieux de 9 550 ans, situé sur la montagne de Fulufjället en Suède, dans le comté de Dalécarlie.
@@ -513,10 +525,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découvert en 2004 par le géologue Leif Kullman, professeur à l'Université d'Umeå, il a été baptisé « Old Tjikko » en hommage à son chien mort[1],[2]. Sa datation au carbone 14 indique que ses racines ont 9 550 ans[3].
-Ayant germé vers 7550 av. J.-C., après la fin de la dernière période glaciaire, il s'agit en réalité d'un des clones issu de la plante mère : l'âge exact de la partie visible n'est pas 9 550 ans, mais l'analyse du bois sous-jacent (mort aujourd'hui) montre qu'il contient le même matériel génétique que la partie vivante et contemporaine de cet arbre. D'après Kullman, son incroyable longévité vient de sa capacité à se cloner lui-même[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découvert en 2004 par le géologue Leif Kullman, professeur à l'Université d'Umeå, il a été baptisé « Old Tjikko » en hommage à son chien mort,. Sa datation au carbone 14 indique que ses racines ont 9 550 ans.
+Ayant germé vers 7550 av. J.-C., après la fin de la dernière période glaciaire, il s'agit en réalité d'un des clones issu de la plante mère : l'âge exact de la partie visible n'est pas 9 550 ans, mais l'analyse du bois sous-jacent (mort aujourd'hui) montre qu'il contient le même matériel génétique que la partie vivante et contemporaine de cet arbre. D'après Kullman, son incroyable longévité vient de sa capacité à se cloner lui-même.
 Il est haut de 4 m, et pousse isolé à une altitude de 910 m au pied d'une montagne de 1 184 m[réf. souhaitée].
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
